--- a/01.軟體版面設定配置/5Min_40MA_5MA/手工進出場確認表.xlsx
+++ b/01.軟體版面設定配置/5Min_40MA_5MA/手工進出場確認表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devel\Desktop\GITHUB\Foreign-Exchange-Margin\01.軟體版面設定配置\5Min_40MA_5MA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,13 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>進場時間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出場時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -54,6 +50,11 @@
   <si>
     <t>停利/停損
 金額(USD)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PS.設定止損
+[進場MACD 0軸價]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,13 +141,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,6 +192,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,187 +480,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F19" sqref="A1:F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="20.21875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="4" max="5" width="14.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:6" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -648,7 +689,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -656,7 +697,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -664,7 +705,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -672,7 +713,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -680,7 +721,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -688,7 +729,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -696,7 +737,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -704,7 +745,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -712,7 +753,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -720,7 +761,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -728,7 +769,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -736,7 +777,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>

--- a/01.軟體版面設定配置/5Min_40MA_5MA/手工進出場確認表.xlsx
+++ b/01.軟體版面設定配置/5Min_40MA_5MA/手工進出場確認表.xlsx
@@ -30,24 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>靜止K棒完全
-在慢線位置[上/下]
-顏色[紅/綠]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MACD 柱狀體
-0軸位置[上/下]
-數值小數點位數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快慢線交叉
-金叉[買]
-死叉[賣]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>停利/停損
 金額(USD)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,12 +39,109 @@
 [進場MACD 0軸價]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>快慢線交叉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+金叉[買]
+死叉[賣]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>靜止K棒完全</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF424242"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+在慢線位置[上/下]
+顏色[紅/綠]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MACD 柱狀體
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0軸位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">[上/下]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>數值小數點位數</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -108,6 +187,31 @@
       <name val="細明體"/>
       <family val="3"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF424242"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,7 +264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,6 +303,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,7 +590,7 @@
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.3"/>
@@ -498,14 +605,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -514,10 +621,10 @@
         <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">

--- a/01.軟體版面設定配置/5Min_40MA_5MA/手工進出場確認表.xlsx
+++ b/01.軟體版面設定配置/5Min_40MA_5MA/手工進出場確認表.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devel\Desktop\GITHUB\Foreign-Exchange-Margin\01.軟體版面設定配置\5Min_40MA_5MA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7476" windowHeight="2748"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2745"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,11 +27,6 @@
   <si>
     <t>停利/停損
 金額(USD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PS.設定止損
-[進場MACD 0軸價]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,12 +126,17 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>PS.設定止損
+進場前的最後一根反K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -367,7 +362,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -402,7 +397,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -579,40 +574,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="14.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="14.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.25" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="75" customHeight="1">
       <c r="A1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
@@ -624,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="1" customFormat="1" ht="27.75">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -636,7 +630,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="27.75">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -645,7 +639,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="27.75">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -654,7 +648,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="27.75">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -663,7 +657,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="27.75">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -672,7 +666,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="27.75">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -681,7 +675,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="27.75">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -690,7 +684,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="27.75">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -699,7 +693,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="27.75">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -708,7 +702,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="27.75">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -717,7 +711,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="27.75">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -726,7 +720,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="27.75">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -735,7 +729,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="27.75">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -744,7 +738,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="27.75">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -753,7 +747,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="27.75">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -762,7 +756,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="27.75">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -771,7 +765,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="27.75">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -780,7 +774,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="27.75">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -788,7 +782,7 @@
       <c r="E19" s="6"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -796,7 +790,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A21" s="8"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -804,7 +798,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -812,7 +806,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -820,7 +814,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -828,7 +822,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A25" s="8"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -836,7 +830,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A26" s="8"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -844,7 +838,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A27" s="8"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -852,7 +846,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A28" s="8"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -860,7 +854,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -868,7 +862,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -876,7 +870,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -884,7 +878,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:7" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="9" customFormat="1" ht="27.75">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -892,7 +886,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -900,7 +894,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -908,7 +902,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -916,7 +910,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -924,7 +918,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -932,7 +926,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -940,7 +934,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -948,7 +942,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -956,7 +950,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -964,7 +958,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -972,7 +966,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -980,7 +974,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -988,7 +982,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -996,7 +990,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1004,7 +998,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1012,7 +1006,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1020,7 +1014,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -1028,7 +1022,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -1036,7 +1030,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -1044,7 +1038,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -1052,7 +1046,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -1060,7 +1054,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -1068,7 +1062,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" s="9" customFormat="1" ht="28.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="9" customFormat="1" ht="27.75">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -1076,75 +1070,75 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="9" customFormat="1">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
     </row>
-    <row r="57" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="9" customFormat="1">
       <c r="A57" s="10"/>
       <c r="B57" s="10"/>
     </row>
-    <row r="58" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="9" customFormat="1">
       <c r="A58" s="10"/>
       <c r="B58" s="10"/>
     </row>
-    <row r="59" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="9" customFormat="1">
       <c r="A59" s="10"/>
       <c r="B59" s="10"/>
     </row>
-    <row r="60" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="9" customFormat="1">
       <c r="A60" s="10"/>
       <c r="B60" s="10"/>
     </row>
-    <row r="61" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="9" customFormat="1">
       <c r="A61" s="10"/>
       <c r="B61" s="10"/>
     </row>
-    <row r="62" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="9" customFormat="1">
       <c r="A62" s="10"/>
       <c r="B62" s="10"/>
     </row>
-    <row r="63" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="9" customFormat="1">
       <c r="A63" s="10"/>
       <c r="B63" s="10"/>
     </row>
-    <row r="64" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="9" customFormat="1">
       <c r="A64" s="10"/>
       <c r="B64" s="10"/>
     </row>
-    <row r="65" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" s="9" customFormat="1">
       <c r="A65" s="10"/>
       <c r="B65" s="10"/>
     </row>
-    <row r="66" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" s="9" customFormat="1">
       <c r="A66" s="10"/>
       <c r="B66" s="10"/>
     </row>
-    <row r="67" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" s="9" customFormat="1">
       <c r="A67" s="10"/>
       <c r="B67" s="10"/>
     </row>
-    <row r="68" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" s="9" customFormat="1">
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
     </row>
-    <row r="69" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" s="9" customFormat="1">
       <c r="A69" s="10"/>
       <c r="B69" s="10"/>
     </row>
-    <row r="70" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" s="9" customFormat="1">
       <c r="A70" s="10"/>
       <c r="B70" s="10"/>
     </row>
-    <row r="71" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" s="9" customFormat="1">
       <c r="A71" s="10"/>
       <c r="B71" s="10"/>
     </row>
-    <row r="72" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" s="9" customFormat="1">
       <c r="A72" s="10"/>
       <c r="B72" s="10"/>
     </row>
-    <row r="73" spans="1:2" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" s="9" customFormat="1">
       <c r="A73" s="10"/>
       <c r="B73" s="10"/>
     </row>

--- a/01.軟體版面設定配置/5Min_40MA_5MA/手工進出場確認表.xlsx
+++ b/01.軟體版面設定配置/5Min_40MA_5MA/手工進出場確認表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>進場時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,34 +27,6 @@
   <si>
     <t>停利/停損
 金額(USD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>快慢線交叉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="2"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-金叉[買]
-死叉[賣]</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,8 +99,81 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PS.設定止損
-進場前的最後一根反K</t>
+    <r>
+      <t xml:space="preserve">PS.設定止損
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>進場前的最後一根反K</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出場時間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>快慢線交叉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+紫色↗穿藍色[買]
+紫色↘穿藍色[賣]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 每次進場前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>縮到最小看一下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而且平盤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍色MA趨勢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不要與</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統相反</t>
+  </si>
+  <si>
+    <t>也不要做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -244,10 +289,47 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -259,7 +341,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,14 +375,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,41 +678,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G19" sqref="A19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
     <col min="4" max="6" width="14.5" style="2" customWidth="1"/>
-    <col min="7" max="7" width="26.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="75" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" ht="27.75">
@@ -637,7 +731,7 @@
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="27.75">
       <c r="A4" s="6"/>
@@ -646,7 +740,7 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="27.75">
       <c r="A5" s="6"/>
@@ -655,7 +749,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" ht="27.75">
       <c r="A6" s="6"/>
@@ -664,7 +758,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="27.75">
       <c r="A7" s="6"/>
@@ -673,7 +767,7 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" ht="27.75">
       <c r="A8" s="6"/>
@@ -682,7 +776,7 @@
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" ht="27.75">
       <c r="A9" s="6"/>
@@ -691,7 +785,7 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="27.75">
       <c r="A10" s="6"/>
@@ -700,7 +794,7 @@
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="27.75">
       <c r="A11" s="6"/>
@@ -709,7 +803,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:7" ht="27.75">
       <c r="A12" s="6"/>
@@ -718,7 +812,7 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" ht="27.75">
       <c r="A13" s="6"/>
@@ -727,7 +821,7 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" ht="27.75">
       <c r="A14" s="6"/>
@@ -736,7 +830,7 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" ht="27.75">
       <c r="A15" s="6"/>
@@ -745,7 +839,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7" ht="27.75">
       <c r="A16" s="6"/>
@@ -754,7 +848,7 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" ht="27.75">
       <c r="A17" s="6"/>
@@ -763,31 +857,41 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="27.75">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="12"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="1:7" ht="27.75">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="11"/>
+      <c r="A19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:7" s="9" customFormat="1" ht="27.75">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:7" s="9" customFormat="1" ht="27.75">
